--- a/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
+++ b/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIA LONG PARIS\DHGLPX 2024\GHI DANH\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71259758-5D62-4BB0-B2EF-BCAB551B56D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEC53E5-AC73-4104-947B-59B15C19A500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -1146,15 +1146,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,39 +1204,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1702,56 +1702,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B254A34F-20D1-4657-8A31-D975B16A9509}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390526" y="76201"/>
-          <a:ext cx="1238249" cy="1057274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1962,6 +1912,56 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>928725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7983252E-DFC2-D9EA-B9B1-711794946B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="85725"/>
+          <a:ext cx="1224000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2233,7 +2233,7 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,40 +2252,40 @@
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="22"/>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="27"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
       <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="22"/>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
@@ -2311,25 +2311,25 @@
     </row>
     <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="101" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="105" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="89"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="63" t="s">
         <v>3</v>
       </c>
@@ -2344,12 +2344,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="21" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="61">
         <v>70</v>
       </c>
@@ -2625,18 +2625,18 @@
       <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
     </row>
     <row r="30" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
@@ -2648,12 +2648,12 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="6" t="s">
         <v>31</v>
       </c>
@@ -2686,60 +2686,60 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
     </row>
     <row r="36" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -2766,30 +2766,30 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:11" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2803,17 +2803,17 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
     </row>
     <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -2836,10 +2836,10 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="105"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -2856,45 +2856,45 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
     </row>
     <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
@@ -2919,33 +2919,33 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
     </row>
     <row r="54" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="96" t="s">
+      <c r="A54" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
     </row>
     <row r="55" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="67" t="s">
@@ -2963,10 +2963,10 @@
       <c r="E55" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="88" t="s">
+      <c r="F55" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="89"/>
+      <c r="G55" s="94"/>
       <c r="H55" s="63" t="s">
         <v>3</v>
       </c>
@@ -3150,10 +3150,10 @@
       <c r="J62" s="53"/>
     </row>
     <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="97" t="s">
+      <c r="A63" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="97"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="15" t="s">
         <v>22</v>
       </c>
@@ -3179,10 +3179,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="97" t="s">
+      <c r="A65" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="97"/>
+      <c r="B65" s="89"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -3222,11 +3222,11 @@
         <v>65</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="D68" s="104" t="s">
+      <c r="D68" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
       <c r="G68" s="15" t="s">
         <v>66</v>
       </c>
@@ -3236,15 +3236,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A43:I43"/>
@@ -3255,13 +3253,15 @@
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A37:K37"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="F55:G55"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
+++ b/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEC53E5-AC73-4104-947B-59B15C19A500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A01FB-159B-486E-9138-1F9EBA2570D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Tổng Cộng tiền</t>
-  </si>
-  <si>
-    <t>€</t>
   </si>
   <si>
     <t>Tổng Cộng số tiền</t>
@@ -482,14 +479,18 @@
   <si>
     <t xml:space="preserve">* Danh sách ghi danh chính thức sẽ được xếp theo năm ra trường và được đăng trên site web của DH </t>
   </si>
+  <si>
+    <t xml:space="preserve"> €</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0\ _€;\-#,##0\ _€;#"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;#"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -914,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -931,9 +932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -961,14 +959,8 @@
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,20 +1026,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1146,16 +1126,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1164,47 +1199,8 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2233,7 +2229,7 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,276 +2247,306 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="22"/>
-      <c r="C2" s="100" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
-      <c r="C3" s="100" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="28"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="G8" s="87"/>
+      <c r="H8" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="18" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="89"/>
+      <c r="B9" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="54">
+        <v>70</v>
+      </c>
+      <c r="F9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="63" t="s">
+      <c r="G9" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>1</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="80">
+        <f>SUM(E10:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>2</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="80">
+        <f t="shared" ref="H11:H19" si="0">SUM(E11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>3</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
-      <c r="B9" s="64" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>4</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>5</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>6</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>7</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>8</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>9</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="1:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
         <v>10</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="61">
-        <v>70</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>1</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
-        <v>2</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-    </row>
-    <row r="12" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>3</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
-        <v>4</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>5</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-    </row>
-    <row r="15" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>6</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
-        <v>7</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
-        <v>8</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
-        <v>9</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
-        <v>10</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -2542,7 +2568,7 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2552,67 +2578,74 @@
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="H23" s="8" t="s">
-        <v>4</v>
+      <c r="E23" s="82">
+        <f>SUM(E10:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="82">
+        <f>SUM(F10:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="83">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="H24" s="20" t="s">
-        <v>4</v>
+      <c r="H24" s="105">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="H25" s="18" t="s">
-        <v>4</v>
+      <c r="H25" s="84">
+        <f>H23+H24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="H26" s="18" t="s">
-        <v>4</v>
+      <c r="H26" s="84" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="H27" s="50" t="s">
-        <v>4</v>
+      <c r="H27" s="83">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,128 +2655,128 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="51"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="A29" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
+      <c r="A31" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
+    <row r="34" spans="1:11" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
+      <c r="A35" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
     </row>
     <row r="36" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
+      <c r="A36" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
+      <c r="A37" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2753,47 +2786,47 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
+      <c r="A39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
+      <c r="A41" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2803,21 +2836,21 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="A43" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
     </row>
     <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2836,381 +2869,381 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="A46" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="103"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+    </row>
+    <row r="49" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+    </row>
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+    </row>
+    <row r="54" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+    </row>
+    <row r="55" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-    </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-    </row>
-    <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92" t="s">
+      <c r="D55" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="87"/>
+      <c r="H55" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="33">
+        <v>1</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-    </row>
-    <row r="54" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-    </row>
-    <row r="55" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="94"/>
-      <c r="H55" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
-        <v>1</v>
-      </c>
-      <c r="B56" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="72">
+      <c r="E56" s="65">
         <v>70</v>
       </c>
-      <c r="F56" s="75">
+      <c r="F56" s="68">
         <v>150</v>
       </c>
-      <c r="G56" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="72">
+      <c r="G56" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="65">
         <f>SUM(E56:F56)</f>
         <v>220</v>
       </c>
-      <c r="I56" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J56" s="36"/>
-      <c r="K56" s="86"/>
+      <c r="I56" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="33"/>
+      <c r="K56" s="79"/>
     </row>
     <row r="57" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+      <c r="A57" s="33">
         <v>2</v>
       </c>
-      <c r="B57" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="70">
+      <c r="B57" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="63">
         <v>75</v>
       </c>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="65">
+        <v>70</v>
+      </c>
+      <c r="F57" s="68">
+        <v>150</v>
+      </c>
+      <c r="G57" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="72">
-        <v>70</v>
-      </c>
-      <c r="F57" s="75">
-        <v>150</v>
-      </c>
-      <c r="G57" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="72">
+      <c r="H57" s="65">
         <f>SUM(E57:F57)</f>
         <v>220</v>
       </c>
-      <c r="I57" s="82"/>
-      <c r="J57" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" s="36" t="s">
-        <v>38</v>
+      <c r="I57" s="75"/>
+      <c r="J57" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="36">
+      <c r="A58" s="33">
         <v>3</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="66"/>
+      <c r="F58" s="68">
+        <v>150</v>
+      </c>
+      <c r="G58" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="65">
+        <f t="shared" ref="H58:H59" si="1">SUM(E58:F58)</f>
+        <v>150</v>
+      </c>
+      <c r="I58" s="76"/>
+      <c r="J58" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="34">
+        <v>4</v>
+      </c>
+      <c r="B59" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="73"/>
-      <c r="F58" s="75">
+      <c r="C59" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="67"/>
+      <c r="F59" s="70">
         <v>150</v>
       </c>
-      <c r="G58" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="72">
-        <f t="shared" ref="H58:H59" si="0">SUM(E58:F58)</f>
+      <c r="G59" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="72">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I58" s="83"/>
-      <c r="J58" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="37">
+      <c r="I59" s="77"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+    </row>
+    <row r="60" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="13"/>
+      <c r="E61" s="29">
+        <v>2</v>
+      </c>
+      <c r="F61" s="28">
         <v>4</v>
       </c>
-      <c r="B59" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="74"/>
-      <c r="F59" s="77">
-        <v>150</v>
-      </c>
-      <c r="G59" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="79">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I59" s="84"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-    </row>
-    <row r="60" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="14"/>
-      <c r="E61" s="32">
-        <v>2</v>
-      </c>
-      <c r="F61" s="31">
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="E62" s="13">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="E62" s="12">
         <f>SUM(E56:E59)</f>
         <v>140</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="12">
         <f>SUM(F56:F59)</f>
         <v>600</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="12">
         <f>SUM(E62:F62)</f>
         <v>740</v>
       </c>
-      <c r="J62" s="53"/>
+      <c r="J62" s="46"/>
     </row>
     <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="89"/>
-      <c r="C63" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="14"/>
-      <c r="H63" s="13">
+      <c r="A63" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="95"/>
+      <c r="C63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="13"/>
+      <c r="H63" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="H64" s="13">
+      <c r="A64" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="H64" s="12">
         <f>SUM(H62:H63)</f>
         <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="H65" s="13">
+      <c r="A65" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="95"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="H65" s="12">
         <f>H64</f>
         <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="H66" s="13">
+      <c r="A66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="H66" s="12">
         <f>H65</f>
         <v>840</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="55"/>
+      <c r="A67" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="48"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3218,31 +3251,33 @@
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="D68" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="D68" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="J68" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="F55:G55"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A43:I43"/>
@@ -3253,15 +3288,13 @@
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
+++ b/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A01FB-159B-486E-9138-1F9EBA2570D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE0D6C-493D-4F07-B347-40FDE42EAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -915,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -997,42 +997,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1040,13 +1012,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1062,7 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,12 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1139,6 +1097,42 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,10 +1143,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1199,8 +1193,23 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1919,7 +1928,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>928725</xdr:colOff>
+      <xdr:colOff>1138275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:to>
@@ -2229,71 +2238,71 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="19"/>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="19"/>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
@@ -2307,26 +2316,26 @@
     </row>
     <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="86" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="56" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="30" t="s">
@@ -2340,213 +2349,213 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="18" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="54">
+      <c r="C9" s="85"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="39">
         <v>70</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>1</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="80">
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71">
         <f>SUM(E10:F10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="31">
         <v>2</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="80">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="71">
         <f t="shared" ref="H11:H19" si="0">SUM(E11:F11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="80">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
     </row>
     <row r="13" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="31">
         <v>4</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="80">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
     </row>
     <row r="14" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="31">
         <v>5</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="80">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
     </row>
     <row r="15" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="31">
         <v>6</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="80">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
     </row>
     <row r="16" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="31">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="80">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
     </row>
     <row r="17" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="31">
         <v>8</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="80">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
     </row>
     <row r="18" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>9</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="80">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
     </row>
     <row r="19" spans="1:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34">
+      <c r="A19" s="32">
         <v>10</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="81">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
     </row>
     <row r="20" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -2582,15 +2591,15 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="E23" s="82">
+      <c r="E23" s="64">
         <f>SUM(E10:E19)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="64">
         <f>SUM(F10:F19)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="83">
+      <c r="H23" s="65">
         <v>0</v>
       </c>
     </row>
@@ -2604,7 +2613,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="H24" s="105">
+      <c r="H24" s="67">
         <v>0</v>
       </c>
     </row>
@@ -2617,7 +2626,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="H25" s="84">
+      <c r="H25" s="66">
         <f>H23+H24</f>
         <v>0</v>
       </c>
@@ -2631,7 +2640,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="H26" s="84" t="s">
+      <c r="H26" s="66" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2644,7 +2653,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="H27" s="83">
+      <c r="H27" s="65">
         <v>0</v>
       </c>
     </row>
@@ -2655,21 +2664,21 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="44"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="30" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -2681,12 +2690,12 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="6" t="s">
         <v>30</v>
       </c>
@@ -2719,60 +2728,60 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:11" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -2799,30 +2808,30 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:11" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2836,17 +2845,17 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -2869,10 +2878,10 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="103"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -2889,45 +2898,45 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95" t="s">
+      <c r="A48" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
     </row>
     <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
@@ -2952,39 +2961,39 @@
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
     </row>
     <row r="54" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
     </row>
     <row r="55" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="30" t="s">
@@ -2996,14 +3005,14 @@
       <c r="E55" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="86" t="s">
+      <c r="F55" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="87"/>
-      <c r="H55" s="56" t="s">
+      <c r="G55" s="81"/>
+      <c r="H55" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="73" t="s">
+      <c r="I55" s="57" t="s">
         <v>40</v>
       </c>
       <c r="J55" s="30" t="s">
@@ -3014,130 +3023,130 @@
       </c>
     </row>
     <row r="56" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
+      <c r="A56" s="31">
         <v>1</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="49">
         <v>70</v>
       </c>
-      <c r="F56" s="68">
+      <c r="F56" s="52">
         <v>150</v>
       </c>
-      <c r="G56" s="69" t="s">
+      <c r="G56" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="49">
         <f>SUM(E56:F56)</f>
         <v>220</v>
       </c>
-      <c r="I56" s="74" t="s">
+      <c r="I56" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="J56" s="33"/>
-      <c r="K56" s="79"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="63"/>
     </row>
     <row r="57" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
+      <c r="A57" s="31">
         <v>2</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="63">
+      <c r="C57" s="47">
         <v>75</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="65">
+      <c r="E57" s="49">
         <v>70</v>
       </c>
-      <c r="F57" s="68">
+      <c r="F57" s="52">
         <v>150</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="49">
         <f>SUM(E57:F57)</f>
         <v>220</v>
       </c>
-      <c r="I57" s="75"/>
-      <c r="J57" s="33" t="s">
+      <c r="I57" s="59"/>
+      <c r="J57" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K57" s="33" t="s">
+      <c r="K57" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33">
+      <c r="A58" s="31">
         <v>3</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="63" t="s">
+      <c r="D58" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="68">
+      <c r="E58" s="50"/>
+      <c r="F58" s="52">
         <v>150</v>
       </c>
-      <c r="G58" s="69" t="s">
+      <c r="G58" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="65">
+      <c r="H58" s="49">
         <f t="shared" ref="H58:H59" si="1">SUM(E58:F58)</f>
         <v>150</v>
       </c>
-      <c r="I58" s="76"/>
-      <c r="J58" s="33" t="s">
+      <c r="I58" s="60"/>
+      <c r="J58" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="K58" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34">
+      <c r="A59" s="32">
         <v>4</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="67"/>
-      <c r="F59" s="70">
+      <c r="E59" s="51"/>
+      <c r="F59" s="54">
         <v>150</v>
       </c>
-      <c r="G59" s="71" t="s">
+      <c r="G59" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="72">
+      <c r="H59" s="56">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I59" s="77"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
     </row>
     <row r="60" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
@@ -3180,13 +3189,13 @@
         <f>SUM(E62:F62)</f>
         <v>740</v>
       </c>
-      <c r="J62" s="46"/>
+      <c r="J62" s="34"/>
     </row>
     <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="95"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="14" t="s">
         <v>21</v>
       </c>
@@ -3212,10 +3221,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="95"/>
+      <c r="B65" s="89"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -3240,10 +3249,10 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="48"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3255,11 +3264,11 @@
         <v>64</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="D68" s="102" t="s">
+      <c r="D68" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
       <c r="G68" s="14" t="s">
         <v>65</v>
       </c>

--- a/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
+++ b/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE0D6C-493D-4F07-B347-40FDE42EAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BBFA04-B9FF-4FF9-8CE7-1B96198FCFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Tổng Cộng tiền</t>
   </si>
   <si>
+    <t>€</t>
+  </si>
+  <si>
     <t>Tổng Cộng số tiền</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
     <t>A và B phải bằng nhau</t>
   </si>
   <si>
-    <t>DÀNH RIÊNG CHO BAN TỔ CHỨC</t>
-  </si>
-  <si>
     <t>Xin ghi danh số tiền tham dự từng chương trình cho từng người và tổng cộng lại</t>
   </si>
   <si>
@@ -123,10 +123,6 @@
   </si>
   <si>
     <t>Dạ tiệc 150€</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di chuyển khứ hồi Paris-Marseille do hội tổ chức
-đi 19/9, về 27/9 </t>
   </si>
   <si>
     <t xml:space="preserve">Hội đoàn/Nhóm Gia Long : </t>
@@ -167,48 +163,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>Du thuyền
-20/9 au 27/9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xin xem mẫu dưới đây để điền phiếu ghi danh : </t>
   </si>
   <si>
     <t>Du lịch đường bộ 19/9 au 22/9</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Xem trang du lịch và đánh dấu nếu tham dự
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Xem trang du lịch và đánh dấu nếu tham dự 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -252,29 +210,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Du lich : Chỉ chọn được 1 trong 2 du lịch vì cả 2 khởi hành gần cùng 1 ngày. Nếu chọn du thuyền thì phải từ Paris xuống Marseille cách Paris khoảng 800 km</t>
     </r>
   </si>
   <si>
@@ -328,22 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hướng dẫn cách điền phiếu và trả tiền : </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nếu chọn du thuyền phải di chuyển xuống Marseille. Xin xem chi tiết trên trang du lịch và đánh dấu nếu tham dự </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
   </si>
   <si>
     <t>Số thứ tự</t>
@@ -409,25 +328,10 @@
     <t>Môn dạy, chức vụ hay Lớp/Năm ra trường (1)</t>
   </si>
   <si>
-    <t>GS Nguyễn thị A</t>
-  </si>
-  <si>
     <t>Văn</t>
   </si>
   <si>
     <t>Thư ký</t>
-  </si>
-  <si>
-    <t>Vé …………</t>
-  </si>
-  <si>
-    <t>Người nhận : …...</t>
-  </si>
-  <si>
-    <t>Ngày nhận : …..</t>
-  </si>
-  <si>
-    <t>Mã số xác nhận : ….</t>
   </si>
   <si>
     <t>Quốc gia
@@ -435,9 +339,6 @@
   </si>
   <si>
     <t>Thắc Mắc :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   Nếu chọn du lich đường bộ thi không phải di chuyển xuống Marseille.</t>
   </si>
   <si>
     <t xml:space="preserve">     Nếu khách tham dự là Quý Giáo Sư xin vui lòng ghi môn dạy, nhân viên trường xin ghi chức vụ, cựu nữ sinh Gia Long xin ghi năm rời trường
@@ -480,19 +381,175 @@
     <t xml:space="preserve">* Danh sách ghi danh chính thức sẽ được xếp theo năm ra trường và được đăng trên site web của DH </t>
   </si>
   <si>
-    <t xml:space="preserve"> €</t>
+    <t>Du thuyền
+19/9 au 27/9</t>
+  </si>
+  <si>
+    <t>E-mail liên lạc nếu chọn du thuyền
+(3)</t>
+  </si>
+  <si>
+    <t>b.aa@gmail.com</t>
+  </si>
+  <si>
+    <t>a.bb@gmail.com</t>
+  </si>
+  <si>
+    <t>c.cc@yahoo.com</t>
+  </si>
+  <si>
+    <t>g.gg@yahoo.com</t>
+  </si>
+  <si>
+    <t>1 Balcony</t>
+  </si>
+  <si>
+    <t>1 Inside</t>
+  </si>
+  <si>
+    <t>Nguyễn thị A</t>
+  </si>
+  <si>
+    <t>GS Nguyễn thị DH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xin xem chi tiết trên trang du lịch và đánh dấu nếu tham dự </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem trang du lịch và cho biết loại phòng chọn nếu tham dự (3)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem trang du lịch và đánh dấu nếu tham dự (3)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail liên lạc nếu chọn du thuyền (3)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di chuyển từ Paris đến chỗ du thuyền do hội tổ chức
+đi 19/9, về 27/9 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     Nếu chọn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>du thuyền</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thì xin cho biết loại phòng chọn và e-mail để hãng du lịch liên lạc thẳng để ghi danh và trả tiền. Tên người ở chung phòng nên để sát nhau để hãng du lịch dễ dàng sắp xếp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Du lich : Chỉ được chọn  1 trong 2 du lịch vì cả 2 khởi hành cùng 1 ngày. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Du lich đường bộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khởi hành ngay tại Paris. Ngược lại, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>du thuyền</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> phải di chuyển từ Paris xuống cảng du thuyền</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     Xin cho biết có tham dự di chuyển từ Paris đến chỗ du thuyền do hội tổ chức hay không (xem hướng dẫn dưới đây)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;#"/>
-    <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ _€;\-#,##0\ _€;#"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +621,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -609,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -818,15 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -911,15 +967,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -932,6 +1091,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -959,8 +1121,14 @@
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,21 +1165,57 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1027,12 +1231,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,153 +1268,178 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1393,13 +1620,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1446,13 +1673,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1499,13 +1726,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1552,13 +1779,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1603,15 +1830,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1627,8 +1854,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="15925800"/>
-          <a:ext cx="5572125" cy="9525"/>
+          <a:off x="2657475" y="18288000"/>
+          <a:ext cx="3905250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1658,13 +1885,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1706,6 +1933,56 @@
       </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B254A34F-20D1-4657-8A31-D975B16A9509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390526" y="76200"/>
+          <a:ext cx="1238249" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1815,7 +2092,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1824,7 +2101,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1838,9 +2115,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4171950" y="6943725"/>
-          <a:ext cx="2276475" cy="9525"/>
+        <a:xfrm>
+          <a:off x="5067300" y="6943725"/>
+          <a:ext cx="1524000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1870,13 +2147,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1917,56 +2194,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1138275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>97950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7983252E-DFC2-D9EA-B9B1-711794946B49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419100" y="85725"/>
-          <a:ext cx="1224000" cy="1260000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2235,452 +2462,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K68"/>
+  <dimension ref="A2:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="19"/>
-      <c r="C2" s="79" t="s">
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="21"/>
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="79" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="26"/>
+      <c r="C3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="19"/>
-      <c r="C4" s="79" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="21"/>
+      <c r="C4" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="43" t="s">
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="111"/>
+      <c r="H8" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="20" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="119"/>
+      <c r="B9" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="55">
+        <v>70</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="127"/>
+      <c r="L9" s="104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>1</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="105"/>
+    </row>
+    <row r="11" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>3</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>4</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>5</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>6</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>7</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>8</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>9</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>10</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="39">
-        <v>70</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>1</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71">
-        <f>SUM(E10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>2</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="71">
-        <f t="shared" ref="H11:H19" si="0">SUM(E11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-    </row>
-    <row r="12" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>3</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-    </row>
-    <row r="13" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="H24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-    </row>
-    <row r="14" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>5</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-    </row>
-    <row r="15" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+    </row>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-    </row>
-    <row r="16" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-    </row>
-    <row r="17" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>9</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
-        <v>10</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-    </row>
-    <row r="20" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="64">
-        <f>SUM(E10:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="64">
-        <f>SUM(F10:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="H24" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="66">
-        <f>H23+H24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-    </row>
-    <row r="30" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+    </row>
+    <row r="30" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2689,33 +2894,33 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
+    <row r="31" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="F32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2723,80 +2928,80 @@
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-    </row>
-    <row r="36" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-    </row>
-    <row r="37" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-    </row>
-    <row r="38" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A35" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+    </row>
+    <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+    </row>
+    <row r="37" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+    </row>
+    <row r="38" spans="1:11" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2807,151 +3012,152 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:11" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+    </row>
+    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-    </row>
-    <row r="42" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-    </row>
-    <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+    </row>
+    <row r="45" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="124"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-    </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-    </row>
-    <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+    <row r="48" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+    </row>
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2960,283 +3166,320 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="98" t="s">
+    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-    </row>
-    <row r="54" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-    </row>
-    <row r="55" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="43" t="s">
+      <c r="B54" s="125"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+    </row>
+    <row r="56" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="30" t="s">
+      <c r="C56" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="111"/>
+      <c r="H56" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L56" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="35">
+        <v>1</v>
+      </c>
+      <c r="B57" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="81"/>
-      <c r="H55" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="31">
-        <v>1</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="47" t="s">
+      <c r="C57" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E57" s="65">
         <v>70</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F57" s="68">
         <v>150</v>
       </c>
-      <c r="G56" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="49">
-        <f>SUM(E56:F56)</f>
-        <v>220</v>
-      </c>
-      <c r="I56" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="31"/>
-      <c r="K56" s="63"/>
-    </row>
-    <row r="57" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
-        <v>2</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="47">
-        <v>75</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="49">
-        <v>70</v>
-      </c>
-      <c r="F57" s="52">
-        <v>150</v>
-      </c>
-      <c r="G57" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="49">
+      <c r="G57" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="85">
         <f>SUM(E57:F57)</f>
         <v>220</v>
       </c>
-      <c r="I57" s="59"/>
-      <c r="J57" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="31">
+      <c r="I57" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+    </row>
+    <row r="58" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="35">
+        <v>2</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="63">
+        <v>78</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="65">
+        <v>70</v>
+      </c>
+      <c r="F58" s="68">
+        <v>150</v>
+      </c>
+      <c r="G58" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="85">
+        <f>SUM(E58:F58)</f>
+        <v>220</v>
+      </c>
+      <c r="I58" s="87"/>
+      <c r="J58" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" s="92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="35">
         <v>3</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B59" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="63">
+        <v>75</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="65">
+        <v>70</v>
+      </c>
+      <c r="F59" s="68">
+        <v>150</v>
+      </c>
+      <c r="G59" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="85">
+        <f>SUM(E59:F59)</f>
+        <v>220</v>
+      </c>
+      <c r="I59" s="88"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" s="92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="35">
+        <v>4</v>
+      </c>
+      <c r="B60" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="47" t="s">
+      <c r="C60" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="52">
+      <c r="E60" s="66"/>
+      <c r="F60" s="68">
         <v>150</v>
       </c>
-      <c r="G58" s="53" t="s">
+      <c r="G60" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="49">
-        <f t="shared" ref="H58:H59" si="1">SUM(E58:F58)</f>
+      <c r="H60" s="85">
+        <f t="shared" ref="H60:H61" si="0">SUM(E60:F60)</f>
         <v>150</v>
       </c>
-      <c r="I58" s="60"/>
-      <c r="J58" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K58" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32">
-        <v>4</v>
-      </c>
-      <c r="B59" s="46" t="s">
+      <c r="I60" s="89"/>
+      <c r="J60" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="K60" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" s="92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="36">
+        <v>5</v>
+      </c>
+      <c r="B61" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C61" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D61" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="54">
+      <c r="E61" s="67"/>
+      <c r="F61" s="70">
         <v>150</v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="G61" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="56">
-        <f t="shared" si="1"/>
+      <c r="H61" s="83">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I59" s="61"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-    </row>
-    <row r="60" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="I61" s="90"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="L61" s="99" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="98"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="13"/>
-      <c r="E61" s="29">
-        <v>2</v>
-      </c>
-      <c r="F61" s="28">
-        <v>4</v>
-      </c>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="E62" s="12">
-        <f>SUM(E56:E59)</f>
-        <v>140</v>
-      </c>
-      <c r="F62" s="12">
-        <f>SUM(F56:F59)</f>
-        <v>600</v>
-      </c>
-      <c r="H62" s="12">
-        <f>SUM(E62:F62)</f>
-        <v>740</v>
-      </c>
-      <c r="J62" s="34"/>
-    </row>
-    <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="89"/>
-      <c r="C63" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="13"/>
-      <c r="H63" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>18</v>
+      <c r="B63" s="15"/>
+      <c r="C63" s="13"/>
+      <c r="E63" s="31">
+        <v>3</v>
+      </c>
+      <c r="F63" s="30">
+        <v>5</v>
+      </c>
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="E64" s="12">
+        <f>SUM(E57:E61)</f>
+        <v>210</v>
+      </c>
+      <c r="F64" s="12">
+        <f>SUM(F57:F61)</f>
+        <v>750</v>
+      </c>
       <c r="H64" s="12">
-        <f>SUM(H62:H63)</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+        <f>SUM(E64:F64)</f>
+        <v>960</v>
+      </c>
+      <c r="J64" s="50"/>
+    </row>
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="106"/>
+      <c r="C65" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="13"/>
       <c r="H65" s="12">
-        <f>H64</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -3244,70 +3487,79 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="H66" s="12">
-        <f>H65</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
+        <f>SUM(H64:H65)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="106"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="H67" s="12">
+        <f>H66</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="D68" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>62</v>
+      <c r="B68" s="106"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="H68" s="12">
+        <f>H67</f>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A50:K50"/>
+  <mergeCells count="29">
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A37:K37"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K59" r:id="rId1" xr:uid="{65E6AF6C-E6DD-4FB8-9F86-3BD797E4FEAF}"/>
+    <hyperlink ref="K60" r:id="rId2" xr:uid="{96FBBE17-739B-4A66-A80B-8E5259559CE7}"/>
+    <hyperlink ref="K61" r:id="rId3" xr:uid="{16A538EB-C9E6-427D-87F7-432516D45947}"/>
+    <hyperlink ref="K58" r:id="rId4" xr:uid="{55DDD83D-D2AF-4359-AF26-9019D5732AC3}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
+++ b/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\2023-08-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BBFA04-B9FF-4FF9-8CE7-1B96198FCFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05A3E3E-D73C-434D-8BA4-8B41A5D02485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -266,57 +266,6 @@
   </si>
   <si>
     <t>Số thứ tự</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Qua bưu điện : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Association Gia Long - 22 Rue Ampère - 92160 Antony - France
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Qua e-mail     :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   ghidanhlienlacdhparis@gmail.com 
-        </t>
-    </r>
   </si>
   <si>
     <t>* Vé mua rồi xin miễn trả lại</t>
@@ -537,6 +486,99 @@
   </si>
   <si>
     <t xml:space="preserve">     Xin cho biết có tham dự di chuyển từ Paris đến chỗ du thuyền do hội tổ chức hay không (xem hướng dẫn dưới đây)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Qua bưu điện : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Association Gia Long - 22 Rue Ampère - 92160 Antony - France
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Qua e-mail     :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   ghidanhlienlacdhparis@gmail.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>và</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dulichdhparis@gmail.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(nếu tham dự du lịch)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -674,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1059,17 +1101,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1177,8 +1208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1231,8 +1260,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,19 +1380,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1436,6 +1454,25 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1934,56 +1971,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B254A34F-20D1-4657-8A31-D975B16A9509}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390526" y="76200"/>
-          <a:ext cx="1238249" cy="1266825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2194,6 +2181,56 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1224000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BAB2976-0E0C-C961-0763-E28A3648EFE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="53615"/>
+          <a:ext cx="1224000" cy="1217941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2465,7 +2502,7 @@
   <dimension ref="A2:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,58 +2516,58 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="21"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="26"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="21"/>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
-      <c r="C5" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="C5" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
@@ -2544,237 +2581,237 @@
     </row>
     <row r="7" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="122" t="s">
-        <v>55</v>
+      <c r="C8" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="57" t="s">
+      <c r="G8" s="104"/>
+      <c r="H8" s="55" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="32" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="9" spans="1:12" s="20" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="112"/>
+      <c r="B9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="55">
+      <c r="C9" s="114"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="53">
         <v>70</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="100" t="s">
+      <c r="I9" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="127"/>
-      <c r="L9" s="104" t="s">
+      <c r="J9" s="98" t="s">
         <v>75</v>
+      </c>
+      <c r="K9" s="120"/>
+      <c r="L9" s="56" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>1</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="105"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="127"/>
     </row>
     <row r="11" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>2</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="43"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="45"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>3</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="43"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="45"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>4</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="43"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="45"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>5</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="43"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="45"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>6</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="43"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="33"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="45"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="43"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="45"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>8</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="33"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="45"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>9</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="43"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="45"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>10</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="44"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="46"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="76"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
@@ -2783,7 +2820,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="76"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
@@ -2793,8 +2830,8 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="72"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2814,7 +2851,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2858,7 +2895,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2869,21 +2906,21 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="48"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
     </row>
     <row r="30" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -2895,12 +2932,12 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="114" t="s">
+      <c r="A31" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
@@ -2933,64 +2970,64 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
+      <c r="A35" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
     </row>
     <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
+      <c r="A36" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
     </row>
     <row r="37" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
     </row>
     <row r="38" spans="1:11" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3001,7 +3038,7 @@
     </row>
     <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3014,7 +3051,7 @@
     </row>
     <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -3025,30 +3062,30 @@
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:11" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="112" t="s">
+      <c r="A41" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -3062,21 +3099,21 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="116" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
+      <c r="A44" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3095,10 +3132,10 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="124"/>
+      <c r="A47" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="117"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3115,45 +3152,45 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
+      <c r="A49" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
     </row>
     <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="130"/>
+      <c r="A51" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -3168,7 +3205,7 @@
     </row>
     <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3178,136 +3215,136 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="125" t="s">
+      <c r="A54" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="125"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="116" t="s">
+      <c r="A55" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
     </row>
     <row r="56" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>62</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="110" t="s">
+      <c r="F56" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="111"/>
-      <c r="H56" s="84" t="s">
+      <c r="G56" s="104"/>
+      <c r="H56" s="82" t="s">
         <v>3</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J56" s="86" t="s">
+      <c r="J56" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K56" s="32" t="s">
-        <v>66</v>
-      </c>
       <c r="L56" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>1</v>
       </c>
-      <c r="B57" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="63" t="s">
+      <c r="B57" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="65">
+      <c r="E57" s="63">
         <v>70</v>
       </c>
-      <c r="F57" s="68">
+      <c r="F57" s="66">
         <v>150</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="85">
+      <c r="H57" s="83">
         <f>SUM(E57:F57)</f>
         <v>220</v>
       </c>
-      <c r="I57" s="87" t="s">
+      <c r="I57" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
     </row>
     <row r="58" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>2</v>
       </c>
-      <c r="B58" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="63">
+      <c r="B58" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="61">
         <v>78</v>
       </c>
-      <c r="D58" s="63" t="s">
+      <c r="D58" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="65">
+      <c r="E58" s="63">
         <v>70</v>
       </c>
-      <c r="F58" s="68">
+      <c r="F58" s="66">
         <v>150</v>
       </c>
-      <c r="G58" s="69" t="s">
+      <c r="G58" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="85">
+      <c r="H58" s="83">
         <f>SUM(E58:F58)</f>
         <v>220</v>
       </c>
-      <c r="I58" s="87"/>
-      <c r="J58" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="K58" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="L58" s="92" t="s">
+      <c r="I58" s="85"/>
+      <c r="J58" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="90" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3315,34 +3352,34 @@
       <c r="A59" s="35">
         <v>3</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="63">
+      <c r="C59" s="61">
         <v>75</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="65">
+      <c r="E59" s="63">
         <v>70</v>
       </c>
-      <c r="F59" s="68">
+      <c r="F59" s="66">
         <v>150</v>
       </c>
-      <c r="G59" s="69" t="s">
+      <c r="G59" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="85">
+      <c r="H59" s="83">
         <f>SUM(E59:F59)</f>
         <v>220</v>
       </c>
-      <c r="I59" s="88"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="L59" s="92" t="s">
+      <c r="I59" s="86"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="L59" s="90" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3350,34 +3387,34 @@
       <c r="A60" s="35">
         <v>4</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="63" t="s">
+      <c r="C60" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="68">
+      <c r="E60" s="64"/>
+      <c r="F60" s="66">
         <v>150</v>
       </c>
-      <c r="G60" s="69" t="s">
+      <c r="G60" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="85">
+      <c r="H60" s="83">
         <f t="shared" ref="H60:H61" si="0">SUM(E60:F60)</f>
         <v>150</v>
       </c>
-      <c r="I60" s="89"/>
-      <c r="J60" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="K60" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="L60" s="92" t="s">
+      <c r="I60" s="87"/>
+      <c r="J60" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" s="90" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3385,47 +3422,47 @@
       <c r="A61" s="36">
         <v>5</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="70">
+      <c r="E61" s="65"/>
+      <c r="F61" s="68">
         <v>150</v>
       </c>
-      <c r="G61" s="71" t="s">
+      <c r="G61" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="83">
+      <c r="H61" s="81">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I61" s="90"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="L61" s="99" t="s">
+      <c r="I61" s="88"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" s="97" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="96"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="94"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="98"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="96"/>
       <c r="L62"/>
     </row>
     <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3460,13 +3497,13 @@
         <f>SUM(E64:F64)</f>
         <v>960</v>
       </c>
-      <c r="J64" s="50"/>
+      <c r="J64" s="48"/>
     </row>
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="106"/>
+      <c r="B65" s="99"/>
       <c r="C65" s="14" t="s">
         <v>21</v>
       </c>
@@ -3492,10 +3529,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="106"/>
+      <c r="B67" s="99"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -3506,10 +3543,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="106" t="s">
+      <c r="A68" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="106"/>
+      <c r="B68" s="99"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>

--- a/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
+++ b/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\2023-08-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05A3E3E-D73C-434D-8BA4-8B41A5D02485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99C9ED-26E1-4335-9B72-006782F8B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hướng dẫn cách điền phiếu và trả tiền : </t>
-  </si>
-  <si>
-    <t>Số thứ tự</t>
   </si>
   <si>
     <t>* Vé mua rồi xin miễn trả lại</t>
@@ -580,16 +577,25 @@
         </t>
     </r>
   </si>
+  <si>
+    <t>Số
+thứ tự</t>
+  </si>
+  <si>
+    <t>Số
+ thứ tự</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0\ _€;\-#,##0\ _€;#"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1108,13 +1114,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1122,9 +1127,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1152,14 +1154,8 @@
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,20 +1213,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1263,9 +1247,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1300,26 +1281,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,81 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1473,6 +1361,115 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2502,7 +2499,7 @@
   <dimension ref="A2:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,297 +2518,327 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="21"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
-      <c r="C3" s="102" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="27"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="21"/>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="55" t="s">
+      <c r="G8" s="101"/>
+      <c r="H8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="119" t="s">
+      <c r="J8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="20" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="56" t="s">
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="53">
+      <c r="C9" s="113"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="45">
         <v>70</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="98" t="s">
+      <c r="I9" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="56" t="s">
+      <c r="J9" s="83" t="s">
         <v>74</v>
       </c>
+      <c r="K9" s="92"/>
+      <c r="L9" s="48" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="31">
         <v>1</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="127"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="116">
+        <f>SUM(E10:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="87"/>
     </row>
     <row r="11" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <v>2</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="43"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="116">
+        <f t="shared" ref="H11:H19" si="0">SUM(E11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="43"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="31">
         <v>4</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="43"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="A14" s="31">
         <v>5</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="43"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="31">
         <v>6</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="43"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="31">
         <v>7</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="43"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="31">
         <v>8</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="43"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="31">
         <v>9</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="43"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="32">
         <v>10</v>
       </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="44"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="74"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
@@ -2820,48 +2847,55 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="74"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="70"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="7" t="s">
+      <c r="E23" s="123">
+        <f>SUM(E10:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="123">
+        <f>SUM(F10:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="125">
+        <f>SUM(H10:H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="126" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="H24" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2"/>
@@ -2869,12 +2903,13 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="17" t="s">
-        <v>4</v>
+      <c r="H25" s="127">
+        <f>SUM(H23:H24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="2"/>
@@ -2882,12 +2917,12 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="2"/>
@@ -2895,81 +2930,81 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="125" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="46"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
     </row>
     <row r="30" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="107" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="108" t="s">
         <v>47</v>
       </c>
@@ -2985,83 +3020,83 @@
       <c r="K34" s="108"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
+      <c r="A35" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-    </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="110" t="s">
+      <c r="A36" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+    </row>
+    <row r="37" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-    </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+    </row>
+    <row r="38" spans="1:11" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="105" t="s">
         <v>44</v>
       </c>
@@ -3098,479 +3133,466 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
+    <row r="44" spans="1:11" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
     </row>
     <row r="45" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="117"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="98"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+    </row>
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+    </row>
+    <row r="56" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-    </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-    </row>
-    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="D56" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="101"/>
+      <c r="H56" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-    </row>
-    <row r="56" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="104"/>
-      <c r="H56" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="I56" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J56" s="84" t="s">
+      <c r="K56" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K56" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="L56" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="35">
+      <c r="L56" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="31">
         <v>1</v>
       </c>
-      <c r="B57" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="61" t="s">
+      <c r="B57" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="63">
+      <c r="E57" s="54">
         <v>70</v>
       </c>
-      <c r="F57" s="66">
+      <c r="F57" s="57">
         <v>150</v>
       </c>
-      <c r="G57" s="67" t="s">
+      <c r="G57" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="83">
+      <c r="H57" s="68">
         <f>SUM(E57:F57)</f>
         <v>220</v>
       </c>
-      <c r="I57" s="85" t="s">
+      <c r="I57" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-    </row>
-    <row r="58" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="35">
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+    </row>
+    <row r="58" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="31">
         <v>2</v>
       </c>
-      <c r="B58" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="61">
+      <c r="B58" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="52">
         <v>78</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="63">
+      <c r="E58" s="54">
         <v>70</v>
       </c>
-      <c r="F58" s="66">
+      <c r="F58" s="57">
         <v>150</v>
       </c>
-      <c r="G58" s="67" t="s">
+      <c r="G58" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="83">
+      <c r="H58" s="68">
         <f>SUM(E58:F58)</f>
         <v>220</v>
       </c>
-      <c r="I58" s="85"/>
-      <c r="J58" s="100" t="s">
+      <c r="I58" s="70"/>
+      <c r="J58" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="L58" s="75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="31">
+        <v>3</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="52">
+        <v>75</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="54">
         <v>70</v>
       </c>
-      <c r="K58" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="L58" s="90" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
-        <v>3</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="61">
-        <v>75</v>
-      </c>
-      <c r="D59" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="63">
-        <v>70</v>
-      </c>
-      <c r="F59" s="66">
+      <c r="F59" s="57">
         <v>150</v>
       </c>
-      <c r="G59" s="67" t="s">
+      <c r="G59" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="83">
+      <c r="H59" s="68">
         <f>SUM(E59:F59)</f>
         <v>220</v>
       </c>
-      <c r="I59" s="86"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="L59" s="90" t="s">
+      <c r="I59" s="71"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35">
+    <row r="60" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="31">
         <v>4</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="61" t="s">
+      <c r="C60" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="64"/>
-      <c r="F60" s="66">
+      <c r="E60" s="55"/>
+      <c r="F60" s="57">
         <v>150</v>
       </c>
-      <c r="G60" s="67" t="s">
+      <c r="G60" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="83">
-        <f t="shared" ref="H60:H61" si="0">SUM(E60:F60)</f>
+      <c r="H60" s="68">
+        <f t="shared" ref="H60:H61" si="1">SUM(E60:F60)</f>
         <v>150</v>
       </c>
-      <c r="I60" s="87"/>
-      <c r="J60" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="K60" s="79" t="s">
+      <c r="I60" s="72"/>
+      <c r="J60" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" s="75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="32">
+        <v>5</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="56"/>
+      <c r="F61" s="59">
+        <v>150</v>
+      </c>
+      <c r="G61" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="66">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I61" s="73"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="L60" s="90" t="s">
+      <c r="L61" s="82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="36">
+    <row r="62" spans="1:12" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="81"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="11"/>
+      <c r="E63" s="27">
+        <v>3</v>
+      </c>
+      <c r="F63" s="26">
         <v>5</v>
       </c>
-      <c r="B61" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="65"/>
-      <c r="F61" s="68">
-        <v>150</v>
-      </c>
-      <c r="G61" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="81">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I61" s="88"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="L61" s="97" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="96"/>
-      <c r="L62"/>
-    </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="13"/>
-      <c r="E63" s="31">
-        <v>3</v>
-      </c>
-      <c r="F63" s="30">
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="16"/>
-    </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="E64" s="12">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="E64" s="10">
         <f>SUM(E57:E61)</f>
         <v>210</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="10">
         <f>SUM(F57:F61)</f>
         <v>750</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="10">
         <f>SUM(E64:F64)</f>
         <v>960</v>
       </c>
-      <c r="J64" s="48"/>
+      <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="99" t="s">
+      <c r="A65" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="99"/>
-      <c r="C65" s="14" t="s">
+      <c r="B65" s="97"/>
+      <c r="C65" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="13"/>
-      <c r="H65" s="12">
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="11"/>
+      <c r="H65" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="H66" s="12">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="H66" s="10">
         <f>SUM(H64:H65)</f>
         <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="99" t="s">
+      <c r="A67" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="99"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="H67" s="12">
+      <c r="B67" s="97"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="H67" s="10">
         <f>H66</f>
         <v>1060</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="99" t="s">
+      <c r="A68" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="99"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="H68" s="12">
+      <c r="B68" s="97"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="H68" s="10">
         <f>H67</f>
         <v>1060</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="J58:J59"/>
     <mergeCell ref="C2:I2"/>
@@ -3587,6 +3609,19 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A44:I44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K59" r:id="rId1" xr:uid="{65E6AF6C-E6DD-4FB8-9F86-3BD797E4FEAF}"/>

--- a/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
+++ b/GhiDanh/PhieuGhiDanh-GS-GL-TH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\2023-08-18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DHGLPX 2024\THONG TIN GHI DANH 2024\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99C9ED-26E1-4335-9B72-006782F8B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D04F23-5891-4067-AB3A-0FE81FF9E312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Điện thoại : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email :        </t>
   </si>
   <si>
     <r>
@@ -160,13 +157,7 @@
     <t xml:space="preserve">       Association Gia Long - CREDIT AGRICOLE ILE DE France - IBAN : FR76 1820 6002 4165 0616 9839 027 - BIC  : AGRIFRPP882</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xin xem mẫu dưới đây để điền phiếu ghi danh : </t>
-  </si>
-  <si>
-    <t>Du lịch đường bộ 19/9 au 22/9</t>
   </si>
   <si>
     <r>
@@ -191,26 +182,6 @@
   </si>
   <si>
     <t>Bảo trợ quỹ tổ chức (tùy tâm) (*)</t>
-  </si>
-  <si>
-    <t>5/ Địa chỉ gởi phiếu ghi danh :</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Euros €
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(4)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -265,10 +236,10 @@
     <t xml:space="preserve">Hướng dẫn cách điền phiếu và trả tiền : </t>
   </si>
   <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
     <t>* Vé mua rồi xin miễn trả lại</t>
-  </si>
-  <si>
-    <t>(Dành cho Quý Giáo Sư, Nhân viên hành chánh trường, cựu nữ sinh Gia Long hải ngoại và thân hữu)</t>
   </si>
   <si>
     <t>Môn dạy, chức vụ hay Lớp/Năm ra trường (1)</t>
@@ -327,162 +298,10 @@
     <t xml:space="preserve">* Danh sách ghi danh chính thức sẽ được xếp theo năm ra trường và được đăng trên site web của DH </t>
   </si>
   <si>
-    <t>Du thuyền
-19/9 au 27/9</t>
-  </si>
-  <si>
-    <t>E-mail liên lạc nếu chọn du thuyền
-(3)</t>
-  </si>
-  <si>
-    <t>b.aa@gmail.com</t>
-  </si>
-  <si>
-    <t>a.bb@gmail.com</t>
-  </si>
-  <si>
-    <t>c.cc@yahoo.com</t>
-  </si>
-  <si>
-    <t>g.gg@yahoo.com</t>
-  </si>
-  <si>
-    <t>1 Balcony</t>
-  </si>
-  <si>
-    <t>1 Inside</t>
-  </si>
-  <si>
     <t>Nguyễn thị A</t>
   </si>
   <si>
     <t>GS Nguyễn thị DH</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Xin xem chi tiết trên trang du lịch và đánh dấu nếu tham dự </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem trang du lịch và cho biết loại phòng chọn nếu tham dự (3)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem trang du lịch và đánh dấu nếu tham dự (3)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail liên lạc nếu chọn du thuyền (3)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di chuyển từ Paris đến chỗ du thuyền do hội tổ chức
-đi 19/9, về 27/9 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     Nếu chọn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>du thuyền</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> thì xin cho biết loại phòng chọn và e-mail để hãng du lịch liên lạc thẳng để ghi danh và trả tiền. Tên người ở chung phòng nên để sát nhau để hãng du lịch dễ dàng sắp xếp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Du lich : Chỉ được chọn  1 trong 2 du lịch vì cả 2 khởi hành cùng 1 ngày. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Du lich đường bộ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> khởi hành ngay tại Paris. Ngược lại, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>du thuyền</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> phải di chuyển từ Paris xuống cảng du thuyền</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">     Xin cho biết có tham dự di chuyển từ Paris đến chỗ du thuyền do hội tổ chức hay không (xem hướng dẫn dưới đây)</t>
   </si>
   <si>
     <r>
@@ -578,26 +397,84 @@
     </r>
   </si>
   <si>
-    <t>Số
-thứ tự</t>
-  </si>
-  <si>
-    <t>Số
- thứ tự</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Để tránh nhiều phí tổn chuyển ngânn xin ghi tên theo nhóm và trả tiền qua REMILTY, WISE hay PAYPAL.
+Nếu trả thẳng bằng cách chuyển ngân thẳng vào ngân hàng cùa hội (IBAN dưới đây) mà không qua các cách nêu trên, xin trả thêm cho hội 18,50€ thuế chuyển ngân </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Địa chỉ gởi phiếu ghi danh :</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                (Dành cho Quý Giáo Sư, Nhân viên hành chánh trường, cựu nữ sinh Gia Long hải ngoại và thân hữu)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Euros €
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3-6)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ _€;\-#,##0\ _€;#"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#"/>
-    <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,14 +546,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -722,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1003,93 +872,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1110,16 +892,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1127,6 +909,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,9 +939,15 @@
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,7 +969,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,6 +994,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1213,22 +1005,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1244,9 +1041,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1281,199 +1082,106 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1654,13 +1362,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1707,13 +1415,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1760,13 +1468,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1813,13 +1521,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1866,13 +1574,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1919,13 +1627,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1967,6 +1675,56 @@
       </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390527</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>238784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B254A34F-20D1-4657-8A31-D975B16A9509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390527" y="76202"/>
+          <a:ext cx="1038223" cy="886482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2131,13 +1889,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2178,56 +1936,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1224000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>23781</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BAB2976-0E0C-C961-0763-E28A3648EFE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="466725" y="53615"/>
-          <a:ext cx="1224000" cy="1217941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2496,406 +2204,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L68"/>
+  <dimension ref="A2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="17"/>
-      <c r="C2" s="104" t="s">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="21"/>
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-    </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="22"/>
-      <c r="C3" s="104" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="17"/>
-      <c r="C4" s="104" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="21"/>
+      <c r="C4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="49" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="C8" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="47" t="s">
+      <c r="G8" s="85"/>
+      <c r="H8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="48" t="s">
+    </row>
+    <row r="9" spans="1:8" s="20" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="93"/>
+      <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="45">
+      <c r="C9" s="95"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="49">
         <v>70</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="G9" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>1</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="116">
-        <f>SUM(E10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="87"/>
-    </row>
-    <row r="11" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="B10" s="53"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="116">
-        <f t="shared" ref="H11:H19" si="0">SUM(E11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="B11" s="36"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
         <v>3</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="116">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="36"/>
-    </row>
-    <row r="13" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="B12" s="36"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
         <v>4</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="116">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="B13" s="36"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>5</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="116">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="B14" s="36"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
         <v>6</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="116">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="B15" s="36"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>7</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="116">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
         <v>8</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="116">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="B17" s="36"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>9</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="116">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+      <c r="B18" s="36"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
         <v>10</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="124">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="62"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="62"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="E23" s="123">
-        <f>SUM(E10:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="123">
-        <f>SUM(F10:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="125">
-        <f>SUM(H10:H19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="126" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="H24" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2"/>
@@ -2903,13 +2503,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="127">
-        <f>SUM(H23:H24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="H25" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="2"/>
@@ -2917,12 +2516,12 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="127" t="s">
+      <c r="H26" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="2"/>
@@ -2930,708 +2529,600 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="95" t="s">
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+    </row>
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+    </row>
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+    </row>
+    <row r="40" spans="1:8" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-    </row>
-    <row r="30" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-    </row>
-    <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-    </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-    </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-    </row>
-    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-    </row>
-    <row r="45" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="98" t="s">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="98"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+    </row>
+    <row r="55" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="98"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="97" t="s">
+      <c r="D55" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="85"/>
+      <c r="H55" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
+        <v>1</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="60">
+        <v>70</v>
+      </c>
+      <c r="F56" s="63">
+        <v>150</v>
+      </c>
+      <c r="G56" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="60">
+        <f>SUM(E56:F56)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
+        <v>2</v>
+      </c>
+      <c r="B57" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-    </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="97" t="s">
+      <c r="C57" s="58">
+        <v>78</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="60">
+        <v>70</v>
+      </c>
+      <c r="F57" s="63">
+        <v>150</v>
+      </c>
+      <c r="G57" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-    </row>
-    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
-    </row>
-    <row r="56" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="101"/>
-      <c r="H56" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J56" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="K56" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L56" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
-        <v>1</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="54">
-        <v>70</v>
-      </c>
-      <c r="F57" s="57">
-        <v>150</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="68">
+      <c r="H57" s="60">
         <f>SUM(E57:F57)</f>
         <v>220</v>
       </c>
-      <c r="I57" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-    </row>
-    <row r="58" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="31">
-        <v>2</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="52">
-        <v>78</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="54">
+    </row>
+    <row r="58" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
+        <v>3</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="58">
+        <v>75</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="60">
         <v>70</v>
       </c>
-      <c r="F58" s="57">
+      <c r="F58" s="63">
         <v>150</v>
       </c>
-      <c r="G58" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="68">
+      <c r="G58" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="60">
         <f>SUM(E58:F58)</f>
         <v>220</v>
       </c>
-      <c r="I58" s="70"/>
-      <c r="J58" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="K58" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="L58" s="75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="31">
+    </row>
+    <row r="59" spans="1:8" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
+        <v>4</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="61"/>
+      <c r="F59" s="63">
+        <v>150</v>
+      </c>
+      <c r="G59" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="60">
+        <f t="shared" ref="H59:H60" si="0">SUM(E59:F59)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35">
+        <v>5</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="62"/>
+      <c r="F60" s="65">
+        <v>150</v>
+      </c>
+      <c r="G60" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="81">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="80"/>
+    </row>
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="13"/>
+      <c r="E62" s="30">
         <v>3</v>
       </c>
-      <c r="B59" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="52">
-        <v>75</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="54">
-        <v>70</v>
-      </c>
-      <c r="F59" s="57">
-        <v>150</v>
-      </c>
-      <c r="G59" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="68">
-        <f>SUM(E59:F59)</f>
-        <v>220</v>
-      </c>
-      <c r="I59" s="71"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="L59" s="75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
-        <v>4</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="57">
-        <v>150</v>
-      </c>
-      <c r="G60" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="68">
-        <f t="shared" ref="H60:H61" si="1">SUM(E60:F60)</f>
-        <v>150</v>
-      </c>
-      <c r="I60" s="72"/>
-      <c r="J60" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="K60" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="L60" s="75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32">
+      <c r="F62" s="29">
         <v>5</v>
       </c>
-      <c r="B61" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="56"/>
-      <c r="F61" s="59">
-        <v>150</v>
-      </c>
-      <c r="G61" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="66">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="I61" s="73"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="L61" s="82" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="81"/>
-      <c r="L62"/>
-    </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>19</v>
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="11"/>
-      <c r="E63" s="27">
-        <v>3</v>
-      </c>
-      <c r="F63" s="26">
-        <v>5</v>
-      </c>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="E64" s="10">
-        <f>SUM(E57:E61)</f>
+      <c r="C63" s="13"/>
+      <c r="E63" s="12">
+        <f>SUM(E56:E60)</f>
         <v>210</v>
       </c>
-      <c r="F64" s="10">
-        <f>SUM(F57:F61)</f>
+      <c r="F63" s="12">
+        <f>SUM(F56:F60)</f>
         <v>750</v>
       </c>
-      <c r="H64" s="10">
-        <f>SUM(E64:F64)</f>
+      <c r="H63" s="12">
+        <f>SUM(E63:F63)</f>
         <v>960</v>
       </c>
-      <c r="J64" s="40"/>
+    </row>
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="82"/>
+      <c r="C64" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="13"/>
+      <c r="H64" s="12">
+        <v>100</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="11"/>
-      <c r="H65" s="10">
-        <v>100</v>
+      <c r="A65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="H65" s="12">
+        <f>SUM(H63:H64)</f>
+        <v>1060</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="H66" s="10">
-        <f>SUM(H64:H65)</f>
+      <c r="A66" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="82"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="H66" s="12">
+        <f>H65</f>
         <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="H67" s="10">
+      <c r="A67" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="82"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="H67" s="12">
         <f>H66</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="97"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="H68" s="10">
-        <f>H67</f>
-        <v>1060</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
+  <mergeCells count="28">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A66:B66"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K59" r:id="rId1" xr:uid="{65E6AF6C-E6DD-4FB8-9F86-3BD797E4FEAF}"/>
-    <hyperlink ref="K60" r:id="rId2" xr:uid="{96FBBE17-739B-4A66-A80B-8E5259559CE7}"/>
-    <hyperlink ref="K61" r:id="rId3" xr:uid="{16A538EB-C9E6-427D-87F7-432516D45947}"/>
-    <hyperlink ref="K58" r:id="rId4" xr:uid="{55DDD83D-D2AF-4359-AF26-9019D5732AC3}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>